--- a/temp_data.xlsx
+++ b/temp_data.xlsx
@@ -1,69 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z0047uc2m\Desktop\GUI\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B607FD1-D62C-4771-897D-F2B934A9C1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{50400C61-4694-4F2C-AAD1-70B8BF0AC4C1}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="BonpetData" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>bababab</t>
-  </si>
-  <si>
-    <t>АВР-Б-100-2-1</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="7"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -82,22 +53,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -397,35 +427,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BD7710-450A-4B9A-8231-6861265A04FD}">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" customWidth="1"/>
+    <col width="20.81640625" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>АВР-Б-100-2-1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>87 900 ₽</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>bababab</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Не найдено</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>267515</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>267515</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>105 678 ₽</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>АВР-Б-100-2-1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>87 900 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>bababab</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Не найдено</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>267515</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>105 678 ₽</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/temp_data.xlsx
+++ b/temp_data.xlsx
@@ -7,6 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="BonpetData" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -431,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -448,6 +449,11 @@
           <t>АВР-Б-100-2-1</t>
         </is>
       </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>87 900 ₽</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -455,11 +461,21 @@
           <t>bababab</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Не найдено</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
           <t>267515</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>105 678 ₽</t>
         </is>
       </c>
     </row>
@@ -467,4 +483,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>АВР-Б-100-2-1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>87 900 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>bababab</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Не найдено</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>267515</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>105 678 ₽</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/temp_data.xlsx
+++ b/temp_data.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>87 900 ₽</t>
+          <t>Не найдено</t>
         </is>
       </c>
     </row>
@@ -475,7 +475,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>105 678 ₽</t>
+          <t>Не найдено</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>87 900 ₽</t>
+          <t>Не найдено</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>105 678 ₽</t>
+          <t>Не найдено</t>
         </is>
       </c>
     </row>

--- a/temp_data.xlsx
+++ b/temp_data.xlsx
@@ -7,7 +7,6 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="BonpetData" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -432,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -449,21 +448,11 @@
           <t>АВР-Б-100-2-1</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Не найдено</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
           <t>bababab</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Не найдено</t>
         </is>
       </c>
     </row>
@@ -473,69 +462,9 @@
           <t>267515</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Не найдено</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>АВР-Б-100-2-1</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Не найдено</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>bababab</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Не найдено</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>267515</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Не найдено</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/temp_data.xlsx
+++ b/temp_data.xlsx
@@ -7,6 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="AliexpressData" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -431,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -448,6 +449,56 @@
           <t>АВР-Б-100-2-1</t>
         </is>
       </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>9 749 ₽</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>977 ₽</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>6 913,27 ₽</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>750 ₽</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>10 181 ₽</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>1 729 ₽</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>11 835,01 ₽</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>8 092,97 ₽</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>6 710,31 ₽</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>6 152,18 ₽</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -455,11 +506,31 @@
           <t>bababab</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>329 ₽</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>449 ₽</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>146 ₽</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
           <t>267515</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Не найдено</t>
         </is>
       </c>
     </row>
@@ -467,4 +538,114 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>АВР-Б-100-2-1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>9 749 ₽</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>977 ₽</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>6 913,27 ₽</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>750 ₽</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>10 181 ₽</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>1 729 ₽</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>11 835,01 ₽</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>8 092,97 ₽</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>6 710,31 ₽</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>6 152,18 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>bababab</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>329 ₽</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>449 ₽</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>146 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>267515</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Не найдено</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/temp_data.xlsx
+++ b/temp_data.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="AliexpressData" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Bonpet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Aliexpress" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -52,9 +53,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -432,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -444,97 +448,418 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>АВР-Б-100-2-1</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>9 749 ₽</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>977 ₽</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>6 913,27 ₽</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>750 ₽</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>10 181 ₽</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>1 729 ₽</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>11 835,01 ₽</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>8 092,97 ₽</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>6 710,31 ₽</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>6 152,18 ₽</t>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>bababab</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>267515</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>bababab</t>
+          <t>shop</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>329 ₽</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>449 ₽</t>
+          <t>price</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>146 ₽</t>
+          <t>shop</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>shop</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>price</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>267515</t>
+          <t>Bonpet</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Не найдено</t>
+          <t>Шкаф АВР 100А, 2 ввода</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>87 900 ₽</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Aliexpress</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Женский теплый хиджаб Kallove из хлопка</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>459 ₽</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Bonpet</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Блок АВР CHINT NXZM-125H/4B 4P 100А Icn=50 кА</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>105 678 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aliexpress</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Масляный насос 074115105A 074115105B 074115105D для Audi 100 A6 C4 VW Transporter T4 Crafter 2,5 TDI AET APL AVT ACV BBE BJK BJJ, 1 шт.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4 799 ₽</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Aliexpress</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10 шт./лот платок из хлопка и вискозы, длинный шарф, Женский сгорающий хиджаб, шаль, мусульманский головной хиджаб, шарф</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2 269 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aliexpress</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Регулятор напряжения R438</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3 649 ₽</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Aliexpress</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Кухонный фартук Eid Mubarak из хлопка и льна</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>439 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Aliexpress</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5-100 шт., микроконтроллеры семьи ATmega48, TQFP32 8 бит MCU AVR ATmega, микроконтроллеры ATMEGA48PA-AU</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>9 984 ₽</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Aliexpress</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Женский теплый хиджаб Kallove из хлопка</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>459 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Aliexpress</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sx460 Avr Stamford заводской генератор автоматический регулятор напряжения стабилизатор дизельного электрического двигателя плата управления</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>902 ₽</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Aliexpress</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>10 шт./лот платок из хлопка и вискозы, длинный шарф, Женский сгорающий хиджаб, шаль, мусульманский головной хиджаб, шарф</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2 269 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Aliexpress</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1/2 ~ 100/200 шт. I2C RTC DS1307 24C32 модуль часов реального времени AVR ARM PIC крошечный модуль памяти без батареи</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>9 562 ₽</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Aliexpress</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Кухонный фартук Eid Mubarak из хлопка и льна</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>439 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Aliexpress</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Модуль AVR для генератора Stamford AS540</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2 092 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Aliexpress</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5/10/100 шт ATTINY13A-SSUR SOIC-8 оригинальная микросхема 8-разрядный микроконтроллер - MCU RoHS Core AVR Программная память 1 Кбайт Напряжение 5,5 В</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>6 753,69 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Aliexpress</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>5/10/100 шт ATTINY816-MNR VQFN-20 оригинальная микросхема ic 8-разрядный микроконтроллер - MCU RoHS Core AVR Программная память 8 Кбайт Напряжение 5,5 В</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>7 906,16 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Aliexpress</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ЖК-модуль IIC/I2C 1602 с последовательной синей подсветкой для Arduino 2560 AVR A004</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>19 482 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Aliexpress</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1/5/10шт ATMEGA2560-16AU TQFP-100 8-разрядный микроконтроллер -MCU RoHS Core AVR Объем оперативной памяти 8 Кбайт 86 входов/выходов Напряжение 5,5 В</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>11 561,83 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Aliexpress</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Лидер продажOEM/ODM производство многофункциональный встроенный усилитель HI-FI 100 Вт * 2 Bluetooth 5,0 цифровой плеер усилитель USB аудио</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>182 232 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Aliexpress</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>5/10/100 шт ATTINY1616-MNR QFN-20 Оригинальная микросхема 8-разрядного микроконтроллера -MCU RoHS Core AVR 18 с напряжением ввода-вывода 5,5 В</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>6 010,17 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Aliexpress</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>5/10/100 шт ATTINY13A-SSU SOIC-8 8-разрядный микроконтроллер -MCU RoHS AVR Data RAM 64 B 6 Напряжение питания ввода-вывода: 5,5 В</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>6 555,42 ₽</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -546,7 +871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,97 +880,371 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>АВР-Б-100-2-1</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>9 749 ₽</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>977 ₽</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>6 913,27 ₽</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>750 ₽</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>10 181 ₽</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>1 729 ₽</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>11 835,01 ₽</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>8 092,97 ₽</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>6 710,31 ₽</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>6 152,18 ₽</t>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>bababab</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>267515</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>bababab</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>329 ₽</t>
+          <t>price</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>449 ₽</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>146 ₽</t>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>price</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Шкаф АВР 100А, 2 ввода</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>87 900 ₽</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Блок АВР CHINT NXZM-125H/4B 4P 100А Icn=50 кА</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>105 678 ₽</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>АВР-Б-100-2-1</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>bababab</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>267515</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Масляный насос 074115105A 074115105B 074115105D для Audi 100 A6 C4 VW Transporter T4 Crafter 2,5 TDI AET APL AVT ACV BBE BJK BJJ, 1 шт.</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Не найдено</t>
+          <t>4 799 ₽</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Женский теплый хиджаб Kallove из хлопка</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>459 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Регулятор напряжения R438</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3 649 ₽</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10 шт./лот платок из хлопка и вискозы, длинный шарф, Женский сгорающий хиджаб, шаль, мусульманский головной хиджаб, шарф</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2 269 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>5-100 шт., микроконтроллеры семьи ATmega48, TQFP32 8 бит MCU AVR ATmega, микроконтроллеры ATMEGA48PA-AU</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>9 984 ₽</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Кухонный фартук Eid Mubarak из хлопка и льна</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>439 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Sx460 Avr Stamford заводской генератор автоматический регулятор напряжения стабилизатор дизельного электрического двигателя плата управления</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>902 ₽</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Женский теплый хиджаб Kallove из хлопка</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>459 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1/2 ~ 100/200 шт. I2C RTC DS1307 24C32 модуль часов реального времени AVR ARM PIC крошечный модуль памяти без батареи</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>9 562 ₽</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10 шт./лот платок из хлопка и вискозы, длинный шарф, Женский сгорающий хиджаб, шаль, мусульманский головной хиджаб, шарф</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2 269 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Модуль AVR для генератора Stamford AS540</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2 092 ₽</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Кухонный фартук Eid Mubarak из хлопка и льна</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>439 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5/10/100 шт ATTINY13A-SSUR SOIC-8 оригинальная микросхема 8-разрядный микроконтроллер - MCU RoHS Core AVR Программная память 1 Кбайт Напряжение 5,5 В</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>6 753,69 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>5/10/100 шт ATTINY816-MNR VQFN-20 оригинальная микросхема ic 8-разрядный микроконтроллер - MCU RoHS Core AVR Программная память 8 Кбайт Напряжение 5,5 В</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>7 906,16 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ЖК-модуль IIC/I2C 1602 с последовательной синей подсветкой для Arduino 2560 AVR A004</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>19 482 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1/5/10шт ATMEGA2560-16AU TQFP-100 8-разрядный микроконтроллер -MCU RoHS Core AVR Объем оперативной памяти 8 Кбайт 86 входов/выходов Напряжение 5,5 В</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11 561,83 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Лидер продажOEM/ODM производство многофункциональный встроенный усилитель HI-FI 100 Вт * 2 Bluetooth 5,0 цифровой плеер усилитель USB аудио</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>182 232 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>5/10/100 шт ATTINY1616-MNR QFN-20 Оригинальная микросхема 8-разрядного микроконтроллера -MCU RoHS Core AVR 18 с напряжением ввода-вывода 5,5 В</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>6 010,17 ₽</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>5/10/100 шт ATTINY13A-SSU SOIC-8 8-разрядный микроконтроллер -MCU RoHS AVR Data RAM 64 B 6 Напряжение питания ввода-вывода: 5,5 В</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>6 555,42 ₽</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/temp_data.xlsx
+++ b/temp_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,26 +13,20 @@
     <sheet name="YandexMarket" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="7"/>
     </font>
   </fonts>
   <fills count="2">
@@ -55,15 +49,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -441,7 +434,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -452,7 +445,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>АВР-Б-100-2-1</t>
+          <t>авр б</t>
         </is>
       </c>
     </row>
@@ -482,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,17 +484,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>АВР-Б-100-2-1</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>авр б</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>bababab</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>267515</t>
         </is>
@@ -520,54 +513,69 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>price</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>price</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Патрон ток.3-х кул. 400 HORTZ PRO 400/2675 (15)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>154 800</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>22675.155.2, Колодки тормозные дисковые, комплект</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9 420</t>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>9 130</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -579,7 +587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,17 +596,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>АВР-Б-100-2-1</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>авр б</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>bababab</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>267515</t>
         </is>
@@ -617,30 +625,561 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>price</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>price</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>SIEMENS 6XV1820-5BH50 6XV18205BH50 COMMUNICATION CABLE ID267515</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>$311.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Temperature Control Automatic Temperature Control Fits 18-19 LEGACY 267515</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>$43.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Column Switch Column Mounted Wiper Fits 16-20 MALIBU 267515</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>$90.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Driver Upper Control Arm Front Stamped Steel Fits 06-11 CROWN VICTORIA 267515</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>$41.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Old postcard Vichy Rue Georges-Clémenceau (267515)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>$9.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Marvin Gaye - The Last Concert Tour (Cass, Comp) (Very Good Plus (VG+)) - 267515</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>$3.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>SPEEDOMETER HEAD ONLY MPH FITS 89-92 RANGER 267515</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>$70.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Keiti Tank Pad Colour KT 1100 267515</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>$28.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>15 X 25 Kitchen towel Red Heart XOXO 267515</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>$2.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>e200546 Hatchback Interior Rear View Mirror Mitsubishi Space Wago DE267515-82</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>$7.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Miller 267515 Kit Field Seal Filtair 130</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>$48.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Mitsubishi Space Wagon 1994 Interior Rear View Mirrors e200546, GE #267515-35</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>$7.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>98VT7003KA GEARBOX / 267515 FOR FORD TRANSIT 2.5 DIESEL</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>$333.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>98VT7003KA GEARBOX / 267515 FOR FORD TRANSIT 2.5 DIESEL</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>$328.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>98VT7003KA GEARBOX / 267515 FOR FORD TRANSIT 2.5 DIESEL</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>$321.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1K0953549BD electronic module for Volkswagen Golf V variant (1K5) 2007 267515</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>$162.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>YUF500010 REARVIEW SIDE MIRROR SWITCH / 267515 FOR LAND ROVER DISCOVERY V6 TD SE</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>$46.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>verrou de hayon Hyundai H-1 817204H800 2.5CRDi 85kW D4CB 267515</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>$56.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Hyundai H-1 Tailgate Lock Box 817204H800 267515</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>$52.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>François Marty. Bishop in France - Daniel Escoulen - V267515</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>$9.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>YUF500010 SPIEGELBEDIENING / 267515 VOOR LAND ROVER DISCOVERY V6 TD SE</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>$45.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>98VT7003KA VERSNELLINGSBAK / 267515 VOOR FORD TRANSIT 2.5 DIESEL</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>$337.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>boot lock solenoid Hyundai H-1 817204H800 2.5CRDi 85kW D4CB 267515</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>$59.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>267515 MEIWA HU2801 HUSQVARNA CR 50 2011 AIR FILTER</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>$15.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>6C0407271E transmission avant gauche pour VOLKSWAGEN POLO (6C1) 2014 267515</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>$88.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>YUF500010 MIRROR CONTROL / 267515 FOR LAND ROVER DISCOVERY V6 TD SE</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>$53.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>YUF500010 MIRROR SWITCH / 267515 FOR LAND ROVER DISCOVERY V6 TD SE</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>$45.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Heckklappenschloss Hyundai H-1 Kasten 817204H800 267515</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>$46.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>267515 Meiwa Hu2801 Husqvarna Sm 50 Air Filter 2011</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>$16.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>YUF500010 SPIEGELSTEUERUNG / 267515 FÜR LAND ROVER DISCOVERY V6 TD SE</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>$45.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>YUF500010 MIRROR CONTROL / 267515 FOR LAND ROVER DISCOVERY V6 TD SE</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>$27.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>YUF500010 MIRROR CONTROL / 267515 FOR LAND ROVER DISCOVERY V6 TD SE</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>$44.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>98VT7003KA GEARBOX / 267515 FOR FORD TRANSIT 2.5 DIESEL</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>$247.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>YUF500010 MIRROR SWITCH / 267515 FOR LAND ROVER DISCOVERY V6 TD SE</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>$45.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>98VT7003KA GEARBOX / 267515 FOR FORD TRANSIT 2.5 DIESEL</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>$331.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1K0953549BD Electronic Module for Volkswagen Golf V Variant (1K5) Advance 267515</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>$161.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>98VT7003KA GEARBOX / 267515 FOR FORD TRANSIT 2.5 DIESEL</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>$359.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>R267515 11 Antwerpen Statie Plein Anvers Place de la Gare 1931</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>$10.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>98VT7003KA GETRIEBE / 267515 FÜR FORD TRANSIT 2.5 DIESEL</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>$390.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Parasol Izquierdo para BMW SERIE 3 BERLINA (E90) 320d 2007 267515</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>$68.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1K0953549BD electronic module for Volkswagen Golf V Variant (1K5) 2007 267515</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>$165.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>267515,Death Friant La Douleur Grief Women i. Black Clothing Tomb</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>$5.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1K0953549BD electronic module for Volkswagen Golf V Variant (1K5) 2007 267515</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>$136.83</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -652,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,17 +1200,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>АВР-Б-100-2-1</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>авр б</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>bababab</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>267515</t>
         </is>
@@ -690,30 +1229,45 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>price</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>price</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>link</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -725,7 +1279,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -734,17 +1288,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>АВР-Б-100-2-1</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>авр б</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>bababab</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>267515</t>
         </is>
@@ -763,30 +1317,45 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>price</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>price</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>link</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
